--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H2">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.400249129426562</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N2">
-        <v>0.400249129426562</v>
+        <v>1.919812</v>
       </c>
       <c r="O2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q2">
-        <v>8.393146794157516</v>
+        <v>20.65677715916667</v>
       </c>
       <c r="R2">
-        <v>8.393146794157516</v>
+        <v>185.9109944325</v>
       </c>
       <c r="S2">
-        <v>0.02768336919356454</v>
+        <v>0.04375368256064437</v>
       </c>
       <c r="T2">
-        <v>0.02768336919356454</v>
+        <v>0.04375368256064437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H3">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06362722406337</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N3">
-        <v>2.06362722406337</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q3">
-        <v>43.27386356791963</v>
+        <v>77.19494173541666</v>
       </c>
       <c r="R3">
-        <v>43.27386356791963</v>
+        <v>694.75447561875</v>
       </c>
       <c r="S3">
-        <v>0.1427314892689077</v>
+        <v>0.1635087095123175</v>
       </c>
       <c r="T3">
-        <v>0.1427314892689077</v>
+        <v>0.1635087095123176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H4">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I4">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J4">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.412941522219357</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N4">
-        <v>0.412941522219357</v>
+        <v>1.265099</v>
       </c>
       <c r="O4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q4">
-        <v>8.659303814990166</v>
+        <v>13.61220167770833</v>
       </c>
       <c r="R4">
-        <v>8.659303814990166</v>
+        <v>122.509815099375</v>
       </c>
       <c r="S4">
-        <v>0.02856124292219972</v>
+        <v>0.02883237528142788</v>
       </c>
       <c r="T4">
-        <v>0.02856124292219972</v>
+        <v>0.02883237528142789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H5">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I5">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J5">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.791115369800551</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N5">
-        <v>0.791115369800551</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q5">
-        <v>16.58953622051172</v>
+        <v>9.981406817916664</v>
       </c>
       <c r="R5">
-        <v>16.58953622051172</v>
+        <v>89.83266136124998</v>
       </c>
       <c r="S5">
-        <v>0.05471776762705078</v>
+        <v>0.02114188975631063</v>
       </c>
       <c r="T5">
-        <v>0.05471776762705078</v>
+        <v>0.02114188975631063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H6">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I6">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J6">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.22436935081516</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N6">
-        <v>1.22436935081516</v>
+        <v>2.542378</v>
       </c>
       <c r="O6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q6">
-        <v>25.67478836589071</v>
+        <v>27.35545761791667</v>
       </c>
       <c r="R6">
-        <v>25.67478836589071</v>
+        <v>246.19911856125</v>
       </c>
       <c r="S6">
-        <v>0.08468392877321682</v>
+        <v>0.05794234016724862</v>
       </c>
       <c r="T6">
-        <v>0.08468392877321682</v>
+        <v>0.05794234016724863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.19786746831179</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H7">
-        <v>1.19786746831179</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I7">
-        <v>0.01932930358933886</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J7">
-        <v>0.01932930358933886</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.400249129426562</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N7">
-        <v>0.400249129426562</v>
+        <v>5.083978</v>
       </c>
       <c r="O7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q7">
-        <v>0.4794454113601938</v>
+        <v>54.70254411791666</v>
       </c>
       <c r="R7">
-        <v>0.4794454113601938</v>
+        <v>492.32289706125</v>
       </c>
       <c r="S7">
-        <v>0.00158136925951108</v>
+        <v>0.1158669492415401</v>
       </c>
       <c r="T7">
-        <v>0.00158136925951108</v>
+        <v>0.1158669492415401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H8">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I8">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J8">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.06362722406337</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N8">
-        <v>2.06362722406337</v>
+        <v>1.919812</v>
       </c>
       <c r="O8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q8">
-        <v>2.471951918428076</v>
+        <v>0.03057641909911111</v>
       </c>
       <c r="R8">
-        <v>2.471951918428076</v>
+        <v>0.275187771892</v>
       </c>
       <c r="S8">
-        <v>0.008153313562229146</v>
+        <v>6.476474644594086E-05</v>
       </c>
       <c r="T8">
-        <v>0.008153313562229146</v>
+        <v>6.476474644594086E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H9">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I9">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J9">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412941522219357</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N9">
-        <v>0.412941522219357</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q9">
-        <v>0.4946492157817179</v>
+        <v>0.1142649152211111</v>
       </c>
       <c r="R9">
-        <v>0.4946492157817179</v>
+        <v>1.02838423699</v>
       </c>
       <c r="S9">
-        <v>0.001631516426154321</v>
+        <v>0.0002420276304420921</v>
       </c>
       <c r="T9">
-        <v>0.001631516426154321</v>
+        <v>0.0002420276304420921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H10">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I10">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J10">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.791115369800551</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N10">
-        <v>0.791115369800551</v>
+        <v>1.265099</v>
       </c>
       <c r="O10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q10">
-        <v>0.9476513651655315</v>
+        <v>0.02014895063988889</v>
       </c>
       <c r="R10">
-        <v>0.9476513651655315</v>
+        <v>0.181340555759</v>
       </c>
       <c r="S10">
-        <v>0.003125667077206908</v>
+        <v>4.267804137280803E-05</v>
       </c>
       <c r="T10">
-        <v>0.003125667077206908</v>
+        <v>4.267804137280803E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H11">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I11">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J11">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.22436935081516</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N11">
-        <v>1.22436935081516</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q11">
-        <v>1.466632214539506</v>
+        <v>0.01477460281977778</v>
       </c>
       <c r="R11">
-        <v>1.466632214539506</v>
+        <v>0.132971425378</v>
       </c>
       <c r="S11">
-        <v>0.004837437264237406</v>
+        <v>3.129448881377373E-05</v>
       </c>
       <c r="T11">
-        <v>0.004837437264237406</v>
+        <v>3.129448881377373E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.83019972475398</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H12">
-        <v>1.83019972475398</v>
+        <v>0.143341</v>
       </c>
       <c r="I12">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J12">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.400249129426562</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N12">
-        <v>0.400249129426562</v>
+        <v>2.542378</v>
       </c>
       <c r="O12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q12">
-        <v>0.7325358465095139</v>
+        <v>0.04049188943311112</v>
       </c>
       <c r="R12">
-        <v>0.7325358465095139</v>
+        <v>0.364427004898</v>
       </c>
       <c r="S12">
-        <v>0.002416145074521928</v>
+        <v>8.576697433901769E-05</v>
       </c>
       <c r="T12">
-        <v>0.002416145074521928</v>
+        <v>8.576697433901769E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.83019972475398</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H13">
-        <v>1.83019972475398</v>
+        <v>0.143341</v>
       </c>
       <c r="I13">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J13">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.06362722406337</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N13">
-        <v>2.06362722406337</v>
+        <v>5.083978</v>
       </c>
       <c r="O13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q13">
-        <v>3.776849977475599</v>
+        <v>0.08097138783311111</v>
       </c>
       <c r="R13">
-        <v>3.776849977475599</v>
+        <v>0.728742490498</v>
       </c>
       <c r="S13">
-        <v>0.01245729818379258</v>
+        <v>0.0001715077028931695</v>
       </c>
       <c r="T13">
-        <v>0.01245729818379258</v>
+        <v>0.0001715077028931695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H14">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I14">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J14">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.412941522219357</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N14">
-        <v>0.412941522219357</v>
+        <v>1.919812</v>
       </c>
       <c r="O14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q14">
-        <v>0.7557654603053567</v>
+        <v>0.932370563108889</v>
       </c>
       <c r="R14">
-        <v>0.7557654603053567</v>
+        <v>8.39133506798</v>
       </c>
       <c r="S14">
-        <v>0.002492764010268636</v>
+        <v>0.001974879495132304</v>
       </c>
       <c r="T14">
-        <v>0.002492764010268636</v>
+        <v>0.001974879495132304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H15">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I15">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J15">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.791115369800551</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N15">
-        <v>0.791115369800551</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q15">
-        <v>1.447899132057612</v>
+        <v>3.48429431853889</v>
       </c>
       <c r="R15">
-        <v>1.447899132057612</v>
+        <v>31.35864886685</v>
       </c>
       <c r="S15">
-        <v>0.00477564937333089</v>
+        <v>0.007380178736814985</v>
       </c>
       <c r="T15">
-        <v>0.00477564937333089</v>
+        <v>0.007380178736814985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H16">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I16">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J16">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.22436935081516</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N16">
-        <v>1.22436935081516</v>
+        <v>1.265099</v>
       </c>
       <c r="O16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q16">
-        <v>2.240840448859115</v>
+        <v>0.6144044661761111</v>
       </c>
       <c r="R16">
-        <v>2.240840448859115</v>
+        <v>5.529640195585</v>
       </c>
       <c r="S16">
-        <v>0.007391031632238547</v>
+        <v>0.001301386841217985</v>
       </c>
       <c r="T16">
-        <v>0.007391031632238547</v>
+        <v>0.001301386841217985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.6470660821969</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H17">
-        <v>37.6470660821969</v>
+        <v>4.370915</v>
       </c>
       <c r="I17">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J17">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.400249129426562</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N17">
-        <v>0.400249129426562</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q17">
-        <v>15.06820542486356</v>
+        <v>0.4505238074522222</v>
       </c>
       <c r="R17">
-        <v>15.06820542486356</v>
+        <v>4.05471426707</v>
       </c>
       <c r="S17">
-        <v>0.04969991638313068</v>
+        <v>0.0009542667525233941</v>
       </c>
       <c r="T17">
-        <v>0.04969991638313068</v>
+        <v>0.0009542667525233941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.6470660821969</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H18">
-        <v>37.6470660821969</v>
+        <v>4.370915</v>
       </c>
       <c r="I18">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J18">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.06362722406337</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N18">
-        <v>2.06362722406337</v>
+        <v>2.542378</v>
       </c>
       <c r="O18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q18">
-        <v>77.68951047333424</v>
+        <v>1.234724237318889</v>
       </c>
       <c r="R18">
-        <v>77.68951047333424</v>
+        <v>11.11251813587</v>
       </c>
       <c r="S18">
-        <v>0.2562456553717994</v>
+        <v>0.002615303051067228</v>
       </c>
       <c r="T18">
-        <v>0.2562456553717994</v>
+        <v>0.002615303051067228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.6470660821969</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H19">
-        <v>37.6470660821969</v>
+        <v>4.370915</v>
       </c>
       <c r="I19">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J19">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.412941522219357</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N19">
-        <v>0.412941522219357</v>
+        <v>5.083978</v>
       </c>
       <c r="O19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q19">
-        <v>15.54603677507511</v>
+        <v>2.469070633318889</v>
       </c>
       <c r="R19">
-        <v>15.54603677507511</v>
+        <v>22.22163569987</v>
       </c>
       <c r="S19">
-        <v>0.05127596193607798</v>
+        <v>0.005229805786141424</v>
       </c>
       <c r="T19">
-        <v>0.05127596193607798</v>
+        <v>0.005229805786141424</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H20">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I20">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J20">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.791115369800551</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N20">
-        <v>0.791115369800551</v>
+        <v>1.919812</v>
       </c>
       <c r="O20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q20">
-        <v>29.78317260552298</v>
+        <v>1.236778940203111</v>
       </c>
       <c r="R20">
-        <v>29.78317260552298</v>
+        <v>11.131010461828</v>
       </c>
       <c r="S20">
-        <v>0.09823473641236502</v>
+        <v>0.002619655173233236</v>
       </c>
       <c r="T20">
-        <v>0.09823473641236502</v>
+        <v>0.002619655173233236</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H21">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I21">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J21">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.22436935081516</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N21">
-        <v>1.22436935081516</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q21">
-        <v>46.09391385915485</v>
+        <v>4.621876757101112</v>
       </c>
       <c r="R21">
-        <v>46.09391385915485</v>
+        <v>41.59689081391001</v>
       </c>
       <c r="S21">
-        <v>0.1520329461921952</v>
+        <v>0.009789723096997412</v>
       </c>
       <c r="T21">
-        <v>0.1520329461921952</v>
+        <v>0.009789723096997412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.326639431300393</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H22">
-        <v>0.326639431300393</v>
+        <v>5.797969</v>
       </c>
       <c r="I22">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J22">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.400249129426562</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N22">
-        <v>0.400249129426562</v>
+        <v>1.265099</v>
       </c>
       <c r="O22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q22">
-        <v>0.1307371480143696</v>
+        <v>0.8150005315478889</v>
       </c>
       <c r="R22">
-        <v>0.1307371480143696</v>
+        <v>7.335004783931</v>
       </c>
       <c r="S22">
-        <v>0.0004312142780958924</v>
+        <v>0.001726274833161889</v>
       </c>
       <c r="T22">
-        <v>0.0004312142780958924</v>
+        <v>0.001726274833161889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.326639431300393</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H23">
-        <v>0.326639431300393</v>
+        <v>5.797969</v>
       </c>
       <c r="I23">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J23">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.06362722406337</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N23">
-        <v>2.06362722406337</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q23">
-        <v>0.6740620228840679</v>
+        <v>0.5976147029557777</v>
       </c>
       <c r="R23">
-        <v>0.6740620228840679</v>
+        <v>5.378532326602</v>
       </c>
       <c r="S23">
-        <v>0.002223279098591493</v>
+        <v>0.001265823986250319</v>
       </c>
       <c r="T23">
-        <v>0.002223279098591493</v>
+        <v>0.001265823986250319</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.326639431300393</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H24">
-        <v>0.326639431300393</v>
+        <v>5.797969</v>
       </c>
       <c r="I24">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J24">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.412941522219357</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N24">
-        <v>0.412941522219357</v>
+        <v>2.542378</v>
       </c>
       <c r="O24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q24">
-        <v>0.1348829839780494</v>
+        <v>1.637847647809111</v>
       </c>
       <c r="R24">
-        <v>0.1348829839780494</v>
+        <v>14.740628830282</v>
       </c>
       <c r="S24">
-        <v>0.0004448886138859439</v>
+        <v>0.003469169731210331</v>
       </c>
       <c r="T24">
-        <v>0.0004448886138859439</v>
+        <v>0.003469169731210331</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.326639431300393</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H25">
-        <v>0.326639431300393</v>
+        <v>5.797969</v>
       </c>
       <c r="I25">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J25">
-        <v>0.005270794056000618</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.791115369800551</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N25">
-        <v>0.791115369800551</v>
+        <v>5.083978</v>
       </c>
       <c r="O25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q25">
-        <v>0.2584094744846521</v>
+        <v>3.275194093409111</v>
       </c>
       <c r="R25">
-        <v>0.2584094744846521</v>
+        <v>29.476746840682</v>
       </c>
       <c r="S25">
-        <v>0.0008523197628633499</v>
+        <v>0.006937277852364689</v>
       </c>
       <c r="T25">
-        <v>0.0008523197628633499</v>
+        <v>0.00693727785236469</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H26">
+        <v>116.279246</v>
+      </c>
+      <c r="I26">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J26">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N26">
+        <v>1.919812</v>
+      </c>
+      <c r="O26">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P26">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q26">
+        <v>24.80381020241689</v>
+      </c>
+      <c r="R26">
+        <v>223.234291821752</v>
+      </c>
+      <c r="S26">
+        <v>0.05253762624870192</v>
+      </c>
+      <c r="T26">
+        <v>0.05253762624870192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H27">
+        <v>116.279246</v>
+      </c>
+      <c r="I27">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J27">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N27">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P27">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q27">
+        <v>92.6925177455489</v>
+      </c>
+      <c r="R27">
+        <v>834.2326597099401</v>
+      </c>
+      <c r="S27">
+        <v>0.1963345475402928</v>
+      </c>
+      <c r="T27">
+        <v>0.1963345475402928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H28">
+        <v>116.279246</v>
+      </c>
+      <c r="I28">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J28">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.265099</v>
+      </c>
+      <c r="O28">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P28">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q28">
+        <v>16.34497309281711</v>
+      </c>
+      <c r="R28">
+        <v>147.104757835354</v>
+      </c>
+      <c r="S28">
+        <v>0.03462073287884779</v>
+      </c>
+      <c r="T28">
+        <v>0.03462073287884779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H29">
+        <v>116.279246</v>
+      </c>
+      <c r="I29">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J29">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P29">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q29">
+        <v>11.98526364287422</v>
+      </c>
+      <c r="R29">
+        <v>107.867372785868</v>
+      </c>
+      <c r="S29">
+        <v>0.02538631349872712</v>
+      </c>
+      <c r="T29">
+        <v>0.02538631349872712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H30">
+        <v>116.279246</v>
+      </c>
+      <c r="I30">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J30">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N30">
+        <v>2.542378</v>
+      </c>
+      <c r="O30">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P30">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q30">
+        <v>32.8473107652209</v>
+      </c>
+      <c r="R30">
+        <v>295.625796886988</v>
+      </c>
+      <c r="S30">
+        <v>0.06957478396161827</v>
+      </c>
+      <c r="T30">
+        <v>0.06957478396161827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H31">
+        <v>116.279246</v>
+      </c>
+      <c r="I31">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J31">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N31">
+        <v>5.083978</v>
+      </c>
+      <c r="O31">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P31">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q31">
+        <v>65.68456983562089</v>
+      </c>
+      <c r="R31">
+        <v>591.161128520588</v>
+      </c>
+      <c r="S31">
+        <v>0.1391282771545459</v>
+      </c>
+      <c r="T31">
+        <v>0.1391282771545459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.228879</v>
+      </c>
+      <c r="I32">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J32">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N32">
+        <v>1.919812</v>
+      </c>
+      <c r="O32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q32">
+        <v>0.2621351834164445</v>
+      </c>
+      <c r="R32">
+        <v>2.359216650748</v>
+      </c>
+      <c r="S32">
+        <v>0.0005552356747039671</v>
+      </c>
+      <c r="T32">
+        <v>0.000555235674703967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.228879</v>
+      </c>
+      <c r="I33">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J33">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N33">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P33">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q33">
+        <v>0.9796063565344447</v>
+      </c>
+      <c r="R33">
+        <v>8.816457208810002</v>
+      </c>
+      <c r="S33">
+        <v>0.002074930916276904</v>
+      </c>
+      <c r="T33">
+        <v>0.002074930916276903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.228879</v>
+      </c>
+      <c r="I34">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J34">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.265099</v>
+      </c>
+      <c r="O34">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P34">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q34">
+        <v>0.1727392882245556</v>
+      </c>
+      <c r="R34">
+        <v>1.554653594021</v>
+      </c>
+      <c r="S34">
+        <v>0.0003658837932215832</v>
+      </c>
+      <c r="T34">
+        <v>0.0003658837932215832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.228879</v>
+      </c>
+      <c r="I35">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J35">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q35">
+        <v>0.1266643817091111</v>
+      </c>
+      <c r="R35">
+        <v>1.139979435382</v>
+      </c>
+      <c r="S35">
+        <v>0.0002682912782733583</v>
+      </c>
+      <c r="T35">
+        <v>0.0002682912782733583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="H26">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="I26">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="J26">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.22436935081516</v>
-      </c>
-      <c r="N26">
-        <v>1.22436935081516</v>
-      </c>
-      <c r="O26">
-        <v>0.2502644361644519</v>
-      </c>
-      <c r="P26">
-        <v>0.2502644361644519</v>
-      </c>
-      <c r="Q26">
-        <v>0.3999273084518953</v>
-      </c>
-      <c r="R26">
-        <v>0.3999273084518953</v>
-      </c>
-      <c r="S26">
-        <v>0.001319092302563939</v>
-      </c>
-      <c r="T26">
-        <v>0.001319092302563939</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.228879</v>
+      </c>
+      <c r="I36">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J36">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N36">
+        <v>2.542378</v>
+      </c>
+      <c r="O36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q36">
+        <v>0.3471416593624445</v>
+      </c>
+      <c r="R36">
+        <v>3.124274934262</v>
+      </c>
+      <c r="S36">
+        <v>0.0007352902076778991</v>
+      </c>
+      <c r="T36">
+        <v>0.000735290207677899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.228879</v>
+      </c>
+      <c r="I37">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J37">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N37">
+        <v>5.083978</v>
+      </c>
+      <c r="O37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q37">
+        <v>0.6941770889624445</v>
+      </c>
+      <c r="R37">
+        <v>6.247593800662</v>
+      </c>
+      <c r="S37">
+        <v>0.001470355407201395</v>
+      </c>
+      <c r="T37">
+        <v>0.001470355407201395</v>
       </c>
     </row>
   </sheetData>
